--- a/solr/solrMetrics/q5/q5Metrics.xlsx
+++ b/solr/solrMetrics/q5/q5Metrics.xlsx
@@ -441,33 +441,6 @@
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -574,33 +547,6 @@
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.333333333333333</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.166666666666667</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.142857142857143</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.125</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.111111111111111</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.1</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -705,34 +651,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.75</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.8</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.666666666666667</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.714285714285714</c:v>
+                  <c:v>0.428571428571429</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.75</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.666666666666667</c:v>
+                  <c:v>0.444444444444444</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.7</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -747,11 +693,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="78907485"/>
-        <c:axId val="9079352"/>
+        <c:axId val="7509706"/>
+        <c:axId val="55877255"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="78907485"/>
+        <c:axId val="7509706"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -812,7 +758,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="9079352"/>
+        <c:crossAx val="55877255"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -820,7 +766,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="9079352"/>
+        <c:axId val="55877255"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -891,7 +837,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78907485"/>
+        <c:crossAx val="7509706"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1370,37 +1316,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.8</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.75</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.75</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.75</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.7</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.7</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1415,11 +1361,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="13784888"/>
-        <c:axId val="78483151"/>
+        <c:axId val="93369778"/>
+        <c:axId val="84614051"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="13784888"/>
+        <c:axId val="93369778"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1488,7 +1434,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78483151"/>
+        <c:crossAx val="84614051"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1496,7 +1442,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78483151"/>
+        <c:axId val="84614051"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1539,7 +1485,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13784888"/>
+        <c:crossAx val="93369778"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1741,11 +1687,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="60078436"/>
-        <c:axId val="61310663"/>
+        <c:axId val="63664772"/>
+        <c:axId val="21577389"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="60078436"/>
+        <c:axId val="63664772"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1814,7 +1760,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61310663"/>
+        <c:crossAx val="21577389"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1822,7 +1768,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61310663"/>
+        <c:axId val="21577389"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1901,7 +1847,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60078436"/>
+        <c:crossAx val="63664772"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2135,11 +2081,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="53144305"/>
-        <c:axId val="1287604"/>
+        <c:axId val="14246810"/>
+        <c:axId val="24285103"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="53144305"/>
+        <c:axId val="14246810"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2208,7 +2154,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1287604"/>
+        <c:crossAx val="24285103"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2216,7 +2162,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1287604"/>
+        <c:axId val="24285103"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2295,7 +2241,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53144305"/>
+        <c:crossAx val="14246810"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2359,9 +2305,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>631800</xdr:colOff>
+      <xdr:colOff>631440</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>169920</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2370,7 +2316,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1440000" y="4924440"/>
-        <a:ext cx="5107320" cy="3151080"/>
+        <a:ext cx="5106960" cy="3150720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2389,9 +2335,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>426960</xdr:colOff>
+      <xdr:colOff>426600</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>102960</xdr:rowOff>
+      <xdr:rowOff>102600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2400,7 +2346,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="7053480" y="4857480"/>
-        <a:ext cx="5123520" cy="3151080"/>
+        <a:ext cx="5127120" cy="3150720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2424,9 +2370,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>792000</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>188640</xdr:rowOff>
+      <xdr:colOff>791640</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>12960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2434,8 +2380,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4650840" y="2724120"/>
-        <a:ext cx="4371480" cy="2665080"/>
+        <a:off x="4652280" y="2451600"/>
+        <a:ext cx="4375800" cy="2664720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2454,9 +2400,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>800640</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>188640</xdr:rowOff>
+      <xdr:colOff>800280</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>12960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2464,8 +2410,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="200160" y="2724120"/>
-        <a:ext cx="4350960" cy="2665080"/>
+        <a:off x="200160" y="2451600"/>
+        <a:ext cx="4350600" cy="2664720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2485,11 +2431,11 @@
   </sheetPr>
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H15" activeCellId="0" sqref="H15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J20" activeCellId="0" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="9.51"/>
@@ -2572,7 +2518,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
         <f aca="false">SUM(B4)/A4</f>
@@ -2584,7 +2530,7 @@
       </c>
       <c r="H4" s="5" t="n">
         <f aca="false">SUM(D4)/A4</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="5" t="e">
         <f aca="false">SUMIF(B$4:B4,"=1")/SUMIF(B$4:B$23,"=1")</f>
@@ -2596,7 +2542,7 @@
       </c>
       <c r="L4" s="5" t="n">
         <f aca="false">SUMIF(D$4:D4,"=1")/SUMIF(D$4:D$23,"=1")</f>
-        <v>0.142857142857143</v>
+        <v>0</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0</v>
@@ -2611,33 +2557,23 @@
       </c>
       <c r="Q4" s="5" t="n">
         <f aca="false">_xlfn.MAXIFS(H$4:H$13,L$4:L$13,"&gt;="&amp;$N4)</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
       <c r="D5" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="F5" s="5" t="n">
-        <f aca="false">SUM(B$4:B5)/A5</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="5" t="n">
-        <f aca="false">SUM(C$4:C5)/A5</f>
-        <v>0.5</v>
-      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
       <c r="H5" s="5" t="n">
         <f aca="false">SUM(D$4:D5)/A5</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J5" s="5" t="e">
         <f aca="false">SUMIF(B$4:B5,"=1")/SUMIF(B$4:B$23,"=1")</f>
@@ -2649,7 +2585,7 @@
       </c>
       <c r="L5" s="5" t="n">
         <f aca="false">SUMIF(D$4:D5,"=1")/SUMIF(D$4:D$23,"=1")</f>
-        <v>0.285714285714286</v>
+        <v>0.25</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1</v>
@@ -2664,33 +2600,23 @@
       </c>
       <c r="Q5" s="5" t="n">
         <f aca="false">_xlfn.MAXIFS(H$4:H$13,L$4:L$13,"&gt;="&amp;$N5)</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="C6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="5" t="n">
-        <f aca="false">SUM(B$4:B6)/A6</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="5" t="n">
-        <f aca="false">SUM(C$4:C6)/A6</f>
-        <v>0.333333333333333</v>
-      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
       <c r="H6" s="5" t="n">
         <f aca="false">SUM(D$4:D6)/A6</f>
-        <v>1</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="J6" s="5" t="e">
         <f aca="false">SUMIF(B$4:B6,"=1")/SUMIF(B$4:B$23,"=1")</f>
@@ -2702,7 +2628,7 @@
       </c>
       <c r="L6" s="5" t="n">
         <f aca="false">SUMIF(D$4:D6,"=1")/SUMIF(D$4:D$23,"=1")</f>
-        <v>0.428571428571429</v>
+        <v>0.25</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2</v>
@@ -2717,33 +2643,23 @@
       </c>
       <c r="Q6" s="5" t="n">
         <f aca="false">_xlfn.MAXIFS(H$4:H$13,L$4:L$13,"&gt;="&amp;$N6)</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="B7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
       <c r="D7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5" t="n">
-        <f aca="false">SUM(B$4:B7)/A7</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="5" t="n">
-        <f aca="false">SUM(C$4:C7)/A7</f>
-        <v>0.25</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
       <c r="H7" s="5" t="n">
         <f aca="false">SUM(D$4:D7)/A7</f>
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="J7" s="5" t="e">
         <f aca="false">SUMIF(B$4:B7,"=1")/SUMIF(B$4:B$23,"=1")</f>
@@ -2755,7 +2671,7 @@
       </c>
       <c r="L7" s="5" t="n">
         <f aca="false">SUMIF(D$4:D7,"=1")/SUMIF(D$4:D$23,"=1")</f>
-        <v>0.428571428571429</v>
+        <v>0.5</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3</v>
@@ -2770,33 +2686,23 @@
       </c>
       <c r="Q7" s="5" t="n">
         <f aca="false">_xlfn.MAXIFS(H$4:H$13,L$4:L$13,"&gt;="&amp;$N7)</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="C8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="5" t="n">
-        <f aca="false">SUM(B$4:B8)/A8</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="5" t="n">
-        <f aca="false">SUM(C$4:C8)/A8</f>
-        <v>0.2</v>
-      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
       <c r="H8" s="5" t="n">
         <f aca="false">SUM(D$4:D8)/A8</f>
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="J8" s="5" t="e">
         <f aca="false">SUMIF(B$4:B8,"=1")/SUMIF(B$4:B$23,"=1")</f>
@@ -2808,7 +2714,7 @@
       </c>
       <c r="L8" s="5" t="n">
         <f aca="false">SUMIF(D$4:D8,"=1")/SUMIF(D$4:D$23,"=1")</f>
-        <v>0.571428571428571</v>
+        <v>0.5</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4</v>
@@ -2823,33 +2729,23 @@
       </c>
       <c r="Q8" s="5" t="n">
         <f aca="false">_xlfn.MAXIFS(H$4:H$13,L$4:L$13,"&gt;="&amp;$N8)</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="B9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
       <c r="D9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="5" t="n">
-        <f aca="false">SUM(B$4:B9)/A9</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="5" t="n">
-        <f aca="false">SUM(C$4:C9)/A9</f>
-        <v>0.166666666666667</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
       <c r="H9" s="5" t="n">
         <f aca="false">SUM(D$4:D9)/A9</f>
-        <v>0.666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="J9" s="5" t="e">
         <f aca="false">SUMIF(B$4:B9,"=1")/SUMIF(B$4:B$23,"=1")</f>
@@ -2861,7 +2757,7 @@
       </c>
       <c r="L9" s="5" t="n">
         <f aca="false">SUMIF(D$4:D9,"=1")/SUMIF(D$4:D$23,"=1")</f>
-        <v>0.571428571428571</v>
+        <v>0.75</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5</v>
@@ -2876,33 +2772,23 @@
       </c>
       <c r="Q9" s="5" t="n">
         <f aca="false">_xlfn.MAXIFS(H$4:H$13,L$4:L$13,"&gt;="&amp;$N9)</f>
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="B10" s="4" t="n">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="C10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="5" t="n">
-        <f aca="false">SUM(B$4:B10)/A10</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="5" t="n">
-        <f aca="false">SUM(C$4:C10)/A10</f>
-        <v>0.142857142857143</v>
-      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
       <c r="H10" s="5" t="n">
         <f aca="false">SUM(D$4:D10)/A10</f>
-        <v>0.714285714285714</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="J10" s="5" t="e">
         <f aca="false">SUMIF(B$4:B10,"=1")/SUMIF(B$4:B$23,"=1")</f>
@@ -2914,7 +2800,7 @@
       </c>
       <c r="L10" s="5" t="n">
         <f aca="false">SUMIF(D$4:D10,"=1")/SUMIF(D$4:D$23,"=1")</f>
-        <v>0.714285714285714</v>
+        <v>0.75</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6</v>
@@ -2929,33 +2815,23 @@
       </c>
       <c r="Q10" s="5" t="n">
         <f aca="false">_xlfn.MAXIFS(H$4:H$13,L$4:L$13,"&gt;="&amp;$N10)</f>
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="B11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
       <c r="D11" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="F11" s="5" t="n">
-        <f aca="false">SUM(B$4:B11)/A11</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="5" t="n">
-        <f aca="false">SUM(C$4:C11)/A11</f>
-        <v>0.125</v>
-      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
       <c r="H11" s="5" t="n">
         <f aca="false">SUM(D$4:D11)/A11</f>
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="J11" s="5" t="e">
         <f aca="false">SUMIF(B$4:B11,"=1")/SUMIF(B$4:B$23,"=1")</f>
@@ -2967,7 +2843,7 @@
       </c>
       <c r="L11" s="5" t="n">
         <f aca="false">SUMIF(D$4:D11,"=1")/SUMIF(D$4:D$23,"=1")</f>
-        <v>0.857142857142857</v>
+        <v>1</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7</v>
@@ -2982,33 +2858,23 @@
       </c>
       <c r="Q11" s="5" t="n">
         <f aca="false">_xlfn.MAXIFS(H$4:H$13,L$4:L$13,"&gt;="&amp;$N11)</f>
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="B12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
       <c r="D12" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="F12" s="5" t="n">
-        <f aca="false">SUM(B$4:B12)/A12</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="5" t="n">
-        <f aca="false">SUM(C$4:C12)/A12</f>
-        <v>0.111111111111111</v>
-      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
       <c r="H12" s="5" t="n">
         <f aca="false">SUM(D$4:D12)/A12</f>
-        <v>0.666666666666667</v>
+        <v>0.444444444444444</v>
       </c>
       <c r="J12" s="5" t="e">
         <f aca="false">SUMIF(B$4:B12,"=1")/SUMIF(B$4:B$23,"=1")</f>
@@ -3020,7 +2886,7 @@
       </c>
       <c r="L12" s="5" t="n">
         <f aca="false">SUMIF(D$4:D12,"=1")/SUMIF(D$4:D$23,"=1")</f>
-        <v>0.857142857142857</v>
+        <v>1</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8</v>
@@ -3035,33 +2901,23 @@
       </c>
       <c r="Q12" s="5" t="n">
         <f aca="false">_xlfn.MAXIFS(H$4:H$13,L$4:L$13,"&gt;="&amp;$N12)</f>
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="B13" s="4" t="n">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="C13" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="5" t="n">
-        <f aca="false">SUM(B$4:B13)/A13</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="5" t="n">
-        <f aca="false">SUM(C$4:C13)/A13</f>
-        <v>0.1</v>
-      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
       <c r="H13" s="5" t="n">
         <f aca="false">SUM(D$4:D13)/A13</f>
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="J13" s="5" t="e">
         <f aca="false">SUMIF(B$4:B13,"=1")/SUMIF(B$4:B$23,"=1")</f>
@@ -3088,7 +2944,7 @@
       </c>
       <c r="Q13" s="5" t="n">
         <f aca="false">_xlfn.MAXIFS(H$4:H$13,L$4:L$13,"&gt;="&amp;$N13)</f>
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3115,7 +2971,7 @@
       </c>
       <c r="Q14" s="5" t="n">
         <f aca="false">_xlfn.MAXIFS(H$4:H$13,L$4:L$13,"&gt;="&amp;$N14)</f>
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3236,11 +3092,11 @@
       </c>
       <c r="G25" s="5" t="n">
         <f aca="false">AVERAGE(G4:G13)</f>
-        <v>0.292896825396825</v>
+        <v>1</v>
       </c>
       <c r="H25" s="5" t="n">
         <f aca="false">AVERAGE(H4:H13)</f>
-        <v>0.804761904761905</v>
+        <v>0.400634920634921</v>
       </c>
     </row>
   </sheetData>
@@ -3265,13 +3121,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:H13"/>
+  <dimension ref="A3:T14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="7.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="4.75"/>
@@ -3281,7 +3137,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.75"/>
   </cols>
   <sheetData>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -3300,11 +3156,11 @@
         <v>0</v>
       </c>
       <c r="H3" s="5" t="e">
-        <f aca="false">maxifs(D$4:D$13,E$4:E$13,"&gt;="&amp;G3)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">_xlfn.MAXIFS(D$4:D$13,E$4:E$13,"&gt;="&amp;G4)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="n">
         <v>1</v>
       </c>
@@ -3325,11 +3181,15 @@
         <v>0.1</v>
       </c>
       <c r="H4" s="5" t="e">
-        <f aca="false">maxifs(D$4:D$13,E$4:E$13,"&gt;="&amp;G4)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">_xlfn.MAXIFS(D$4:D$13,E$4:E$13,"&gt;="&amp;G5)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="n">
         <v>2</v>
       </c>
@@ -3350,11 +3210,15 @@
         <v>0.2</v>
       </c>
       <c r="H5" s="5" t="e">
-        <f aca="false">maxifs(D$4:D$13,E$4:E$13,"&gt;="&amp;G5)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">_xlfn.MAXIFS(D$4:D$13,E$4:E$13,"&gt;="&amp;G6)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="n">
         <v>3</v>
       </c>
@@ -3375,11 +3239,15 @@
         <v>0.3</v>
       </c>
       <c r="H6" s="5" t="e">
-        <f aca="false">maxifs(D$4:D$13,E$4:E$13,"&gt;="&amp;G6)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">_xlfn.MAXIFS(D$4:D$13,E$4:E$13,"&gt;="&amp;G7)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="n">
         <v>4</v>
       </c>
@@ -3400,11 +3268,15 @@
         <v>0.4</v>
       </c>
       <c r="H7" s="5" t="e">
-        <f aca="false">maxifs(D$4:D$13,E$4:E$13,"&gt;="&amp;G7)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">_xlfn.MAXIFS(D$4:D$13,E$4:E$13,"&gt;="&amp;G8)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="n">
         <v>5</v>
       </c>
@@ -3425,11 +3297,15 @@
         <v>0.5</v>
       </c>
       <c r="H8" s="5" t="e">
-        <f aca="false">maxifs(D$4:D$13,E$4:E$13,"&gt;="&amp;G8)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">_xlfn.MAXIFS(D$4:D$13,E$4:E$13,"&gt;="&amp;G9)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="n">
         <v>6</v>
       </c>
@@ -3450,11 +3326,15 @@
         <v>0.6</v>
       </c>
       <c r="H9" s="5" t="e">
-        <f aca="false">maxifs(D$4:D$13,E$4:E$13,"&gt;="&amp;G9)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">_xlfn.MAXIFS(D$4:D$13,E$4:E$13,"&gt;="&amp;G10)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="n">
         <v>7</v>
       </c>
@@ -3475,11 +3355,15 @@
         <v>0.7</v>
       </c>
       <c r="H10" s="5" t="e">
-        <f aca="false">maxifs(D$4:D$13,E$4:E$13,"&gt;="&amp;G10)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">_xlfn.MAXIFS(D$4:D$13,E$4:E$13,"&gt;="&amp;G11)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="n">
         <v>8</v>
       </c>
@@ -3500,11 +3384,15 @@
         <v>0.8</v>
       </c>
       <c r="H11" s="5" t="e">
-        <f aca="false">maxifs(D$4:D$13,E$4:E$13,"&gt;="&amp;G11)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">_xlfn.MAXIFS(D$4:D$13,E$4:E$13,"&gt;="&amp;G12)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="n">
         <v>9</v>
       </c>
@@ -3525,11 +3413,15 @@
         <v>0.9</v>
       </c>
       <c r="H12" s="5" t="e">
-        <f aca="false">maxifs(D$4:D$13,E$4:E$13,"&gt;="&amp;G12)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">_xlfn.MAXIFS(D$4:D$13,E$4:E$13,"&gt;="&amp;G13)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="n">
         <v>10</v>
       </c>
@@ -3550,9 +3442,19 @@
         <v>1</v>
       </c>
       <c r="H13" s="5" t="e">
-        <f aca="false">maxifs(D$4:D$13,E$4:E$13,"&gt;="&amp;G13)</f>
-        <v>#NAME?</v>
-      </c>
+        <f aca="false">_xlfn.MAXIFS(D$4:D$13,E$4:E$13,"&gt;="&amp;G14)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
